--- a/Задачи и жесты.xlsx
+++ b/Задачи и жесты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzdea\PycharmProjects\ThesisProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F449906-95E3-444E-9144-2DD3C74C2031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6A9D1D-9709-41F5-B366-5658D4B80B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{63E1BC42-EDBB-4B76-961B-725C6413815B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Win+Tab</t>
   </si>
@@ -69,12 +69,6 @@
     <t xml:space="preserve">Можно придумать функцию конвертации правого жеста в левый и наооборт </t>
   </si>
   <si>
-    <t xml:space="preserve">Разделить присеты левой руки, правой или мульти </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Модели будет две, но нужно блокировать жесты которые были созданы только для какой-то одной руки, при переключении к двуручной системе управления </t>
-  </si>
-  <si>
     <t>Бинд</t>
   </si>
   <si>
@@ -130,13 +124,19 @@
   </si>
   <si>
     <t>Выделить поисковую строку</t>
+  </si>
+  <si>
+    <t>Готовность</t>
+  </si>
+  <si>
+    <t>Готово</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +169,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +200,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -243,6 +256,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -250,7 +276,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -268,23 +294,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,8 +318,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -614,21 +668,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09422F24-61BB-4A09-853C-042F8A1D8694}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.88671875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -638,254 +692,266 @@
       <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="18"/>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="18"/>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="18"/>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="16"/>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="17"/>
+      <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="16"/>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="16"/>
+      <c r="E15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="D3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="D11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="25"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="2"/>
+    <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="25"/>
       <c r="F18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -927,10 +993,14 @@
       <c r="F27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="19">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C4:C7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:B13"/>
